--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="7995" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <r>
       <t>Цей файл являє собою інструмент для розрахунку викидів N</t>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Цей файл призначений для розрахунку викидів від однієї точки викидів. При наявності декількох точок викидів (та відповідних точок вимірювання) рекомендується скопіювати цей файл для кожної точки окремо. </t>
-  </si>
-  <si>
-    <t>  Аркуш "Дані СНВВ"</t>
   </si>
   <si>
     <t xml:space="preserve">призначений для введення погодинних даних, отриманих за допомогою системи неперервних вимірювань (СНВВ). </t>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>оцінка стандартного відхилення показника концентрації для періоду, за який розраховано середнє арифметичне значення</t>
-  </si>
-  <si>
-    <t>Аркуш "Результати"</t>
   </si>
   <si>
     <t>містить результати розрахунку викидів на ключових значень, які включаються у звіт оператора</t>
@@ -348,18 +342,6 @@
     <t>Значення з урахуванням замінних даних</t>
   </si>
   <si>
-    <t>NCSG - N2O concentration in stack gas</t>
-  </si>
-  <si>
-    <t>NCSG_State</t>
-  </si>
-  <si>
-    <t>VSG - volume of stack gas</t>
-  </si>
-  <si>
-    <t>VSG_State</t>
-  </si>
-  <si>
     <t>Сума всіх значень</t>
   </si>
   <si>
@@ -1338,20 +1320,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="d/m"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="m/d/yyyy\ h:mm"/>
-    <numFmt numFmtId="185" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="d/m"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3436,13 +3418,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -3583,7 +3565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="149"/>
@@ -3603,7 +3585,7 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -3640,7 +3622,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3664,10 +3646,10 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3685,7 +3667,7 @@
     <xf numFmtId="1" fontId="9" fillId="19" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="20" borderId="23" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3694,13 +3676,13 @@
     <xf numFmtId="1" fontId="9" fillId="21" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="26" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="24" borderId="27" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="24" borderId="27" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3711,9 +3693,9 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="26" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="13" fillId="26" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="149" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="13" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="13" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="30" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3732,35 +3714,35 @@
     <xf numFmtId="0" fontId="15" fillId="30" borderId="33" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="23" borderId="26" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="23" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="24" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="27" borderId="30" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="27" borderId="30" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="22" borderId="25" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="28" borderId="31" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="15" borderId="18" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="28" borderId="31" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="15" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="32" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="15" fillId="26" borderId="29" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="15" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="15" fillId="26" borderId="29" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="35" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="15" fillId="35" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3773,7 +3755,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="9" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="9" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="149" applyBorder="1"/>
@@ -3817,7 +3799,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3832,7 +3814,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3853,26 +3835,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="53" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="54" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="55" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="57" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="59" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="43" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="25" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="65" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="45" borderId="62" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="66" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="69" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="53" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="54" borderId="71" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="56" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="66" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="57" borderId="74" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="61" borderId="78" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="62" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="25" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="149" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="28" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="43" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="45" borderId="62" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="63" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="63" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
       <extLst>
         <ext uri="smNativeData">
           <pm:cellMargin xmlns:pm="smNativeData" id="1647418215" l="0" r="0" t="0" b="0" textRotation="3"/>
@@ -3880,74 +3925,19 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="47" borderId="64" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
       <extLst>
         <ext uri="smNativeData">
           <pm:cellMargin xmlns:pm="smNativeData" id="1647418215" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="25" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="65" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="66" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="69" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="54" borderId="71" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="56" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="66" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="57" borderId="74" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="58" borderId="75" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="61" borderId="78" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="62" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="25" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4044,19 +4034,19 @@
     <xf numFmtId="0" fontId="9" fillId="78" borderId="98" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="28" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="28" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="17" borderId="20" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="17" borderId="20" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="25" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4088,9 +4078,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="149" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="151">
@@ -5694,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:L5"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5712,85 +5699,83 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="64">
         <v>2</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="171" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="173"/>
+      <c r="B5" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="175"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="157"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="4"/>
@@ -5799,62 +5784,62 @@
       <c r="D7" s="116"/>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A11" s="5"/>
@@ -5874,183 +5859,181 @@
       <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="187"/>
+      <c r="B14" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="189"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
+      <c r="B15" s="190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
+      <c r="B16" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
+      <c r="D18" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
+      <c r="D19" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
+      <c r="D20" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="189" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
+      <c r="D21" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="152">
+      <c r="C22" s="144">
         <v>1</v>
       </c>
-      <c r="D22" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
+      <c r="D22" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A23" s="5"/>
@@ -6831,10 +6814,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B4:C4" location="Дані_СНВВ!A1" display="  Аркуш &quot;Дані СНВВ&quot;"/>
-    <hyperlink ref="B12:C12" location="Результати!A1" display="Аркуш &quot;Результати&quot;"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <drawing r:id="rId1"/>
@@ -6853,11 +6832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6865,7 +6844,7 @@
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -6884,102 +6863,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="53.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="D1" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="E1" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="F1" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="H1" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="129" t="s">
+      <c r="J1" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="129" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="32" t="s">
+      <c r="N1" s="194"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="191" t="s">
+      <c r="Q1" s="197"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="192"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="151" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="57" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="141"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="10"/>
       <c r="M2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="150"/>
+      <c r="S2" s="143"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="119"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -6988,7 +6959,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="41"/>
       <c r="N3" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O3" s="49">
         <f>SUM(O6:O15550)</f>
@@ -6996,47 +6967,47 @@
       </c>
       <c r="P3" s="37"/>
       <c r="Q3" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R3" s="49">
         <f>SUM(R6:R15550)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="160">
+      <c r="S3" s="152">
         <f>SUM(S6:S15550)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="53.25" customHeight="1">
-      <c r="A4" s="197" t="s">
-        <v>38</v>
+      <c r="A4" s="199" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="121">
+        <v>33</v>
+      </c>
+      <c r="C4" s="120">
         <v>0.93520000000000003</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="158">
+      <c r="D4" s="121"/>
+      <c r="E4" s="150">
         <v>1.1951000000000001</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="143" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="144" t="s">
-        <v>42</v>
+      <c r="F4" s="122"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="126"/>
+      <c r="K4" s="137" t="s">
+        <v>36</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="42"/>
       <c r="N4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O4" s="71">
         <f>COUNTIF(O6:O15605,"Вставте замінне значення!")</f>
@@ -7044,7 +7015,7 @@
       </c>
       <c r="P4" s="37"/>
       <c r="Q4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R4" s="71">
         <f>COUNTIF(R6:R15605,"Вставте замінне значення!")</f>
@@ -7053,31 +7024,31 @@
       <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:19" ht="30">
-      <c r="A5" s="198"/>
+      <c r="A5" s="200"/>
       <c r="B5" s="63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="118">
         <v>0</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="159">
+      <c r="D5" s="123"/>
+      <c r="E5" s="151">
         <v>0</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="148">
+      <c r="F5" s="124"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141">
         <f>SUM(I6)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="149">
+      <c r="J5" s="138"/>
+      <c r="K5" s="142">
         <f>COUNTIF(K6:K17229,"СНВВ не працює")</f>
         <v>0</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M5" s="38">
         <f>COUNT(M$6:M$15550)</f>
@@ -7109,7 +7080,7 @@
       <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="161">
+      <c r="B6" s="153">
         <v>44562.041666666657</v>
       </c>
       <c r="C6" s="29">
@@ -7172,7 +7143,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7228,7 +7199,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1647418215" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -7245,7 +7216,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8219,27 +8190,27 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="55" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8248,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -8257,10 +8228,10 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
       <c r="A4" s="57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -8269,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -8278,40 +8249,40 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="200" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="74">
         <f>Data_CNBB!I5</f>
         <v>0</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G5" s="19"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="209"/>
+      <c r="K5" s="154"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="201" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="74">
         <f>Data_CNBB!$S$3/1000000000</f>
         <v>0</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" s="19"/>
       <c r="I6" s="21"/>
@@ -8320,19 +8291,19 @@
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="75">
         <f>E6*298</f>
         <v>0</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" s="19"/>
       <c r="I7" s="21"/>
@@ -8341,19 +8312,19 @@
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="202" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
+        <v>59</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
       <c r="E8" s="76">
         <f>IFERROR(Data_CNBB!$S$3/1000000/E5, 0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="23"/>
@@ -8377,7 +8348,7 @@
     <row r="10" spans="1:12" ht="24.75" customHeight="1">
       <c r="A10" s="83"/>
       <c r="B10" s="115" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -8435,38 +8406,38 @@
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="86"/>
       <c r="B16" s="92"/>
-      <c r="C16" s="203" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
+      <c r="C16" s="205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="86"/>
       <c r="B17" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
+        <v>64</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="18.75">
       <c r="A18" s="86"/>
       <c r="B18" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="203" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="205" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
@@ -8491,23 +8462,23 @@
       <c r="A21" s="93">
         <v>2</v>
       </c>
-      <c r="B21" s="206" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="205" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="205"/>
+      <c r="B21" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="207"/>
       <c r="E21" s="78"/>
       <c r="F21" s="87"/>
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="89"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="207" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="207"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="209"/>
       <c r="E22" s="78"/>
       <c r="F22" s="87"/>
     </row>
@@ -8530,50 +8501,50 @@
     <row r="25" spans="1:7" ht="18.75">
       <c r="A25" s="89"/>
       <c r="B25" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="203" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+        <v>70</v>
+      </c>
+      <c r="C25" s="205" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="206"/>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="90"/>
       <c r="B26" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="206"/>
     </row>
     <row r="27" spans="1:7" ht="18.75">
       <c r="A27" s="90"/>
       <c r="B27" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="203" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="206"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="90"/>
       <c r="B28" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="203" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="205" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="90"/>
@@ -8603,10 +8574,10 @@
       <c r="A32" s="93">
         <v>3</v>
       </c>
-      <c r="B32" s="208" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="208"/>
+      <c r="B32" s="210" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="210"/>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
       <c r="F32" s="91"/>
@@ -8638,38 +8609,38 @@
     <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="90"/>
       <c r="B36" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="203" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="204"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
     </row>
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="90"/>
       <c r="B37" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="203" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="204"/>
+        <v>78</v>
+      </c>
+      <c r="C37" s="205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="206"/>
     </row>
     <row r="38" spans="1:6" ht="18.75">
       <c r="A38" s="90"/>
       <c r="B38" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="203" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="204"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="205" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="206"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="95"/>

--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data_CNBB" sheetId="3" r:id="rId2"/>
     <sheet name="Results" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2238,19 +2238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -2551,6 +2538,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2573,7 +2575,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2626,87 +2628,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="4" borderId="21" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2745,21 +2666,6 @@
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="4" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2767,9 +2673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="13" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2790,9 +2693,6 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="45" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="13" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2802,18 +2702,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="13" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="52" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="53" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="52" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="54" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="53" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="55" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -2822,37 +2717,37 @@
     <xf numFmtId="171" fontId="0" fillId="4" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="38" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="36" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="56" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="57" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="58" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="4" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="5" applyFill="1" applyBorder="1"/>
@@ -2866,53 +2761,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="4" borderId="39" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="61" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="60" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="4" borderId="40" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="62" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="63" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="64" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="66" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="65" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,10 +2813,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="19" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2933,28 +2825,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="67" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="68" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="67" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="68" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="69" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="70" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2966,43 +2852,28 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="71" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="70" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3021,15 +2892,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="19" fillId="5" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3039,6 +2901,145 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="175" fontId="22" fillId="5" borderId="46" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="45" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="74" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2 2" xfId="8"/>
@@ -3052,47 +3053,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Обычный_%использ. уст. мощн.2005г." xfId="4"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3146,40 +3107,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3230,7 +3157,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3292,7 +3219,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3354,7 +3281,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3421,7 +3348,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3483,7 +3410,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3827,19 +3754,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3848,51 +3775,51 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -3927,50 +3854,50 @@
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
     </row>
     <row r="10" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
     </row>
     <row r="11" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3990,189 +3917,177 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="148"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="158"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D22:L22"/>
@@ -4183,9 +4098,21 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="D19:L19"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4199,7 +4126,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,275 +4151,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="64" t="s">
+      <c r="N1" s="173"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="68" t="s">
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="126"/>
-      <c r="M2" s="66" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="115"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="58"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="118">
+      <c r="O3" s="81">
         <f>SUM(O6:O15550)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="117" t="s">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="118">
+      <c r="R3" s="81">
         <f>SUM(R6:R15550)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="119">
+      <c r="S3" s="82">
         <f>SUM(S6:S15550)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="38">
         <v>0.93520000000000003</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40">
         <v>1.1951000000000001</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="114">
+      <c r="O4" s="77">
         <f>COUNTIF(O6:O15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="112" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="114">
+      <c r="R4" s="77">
         <f>COUNTIF(R6:R15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="S4" s="115"/>
+      <c r="S4" s="78"/>
     </row>
     <row r="5" spans="1:19" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="171"/>
+      <c r="B5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="48">
         <v>0</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84">
+      <c r="D5" s="49"/>
+      <c r="E5" s="50">
         <v>0</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="188">
         <f>SUM(I6)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90">
-        <f>COUNTIF(K6:K17229,"СНВВ не працює")</f>
+      <c r="J5" s="53"/>
+      <c r="K5" s="189">
+        <f>COUNTIF(K6, "СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="69">
         <f>COUNT(M$7:M$15551)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="106">
+      <c r="N5" s="69">
         <f>COUNT(N$7:N$15551)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="107">
+      <c r="O5" s="70">
         <f>COUNT(O$7:O$15551)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="106">
+      <c r="P5" s="69">
         <f>COUNTIF(P$7:P$15551,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="71">
         <f>COUNT(Q$7:Q$15551)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="109">
+      <c r="R5" s="72">
         <f>COUNT(R$7:R$15551)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="110"/>
+      <c r="S5" s="73"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="91">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="55">
         <v>44562.041666666657</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="56">
         <v>0</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="57">
         <v>0</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="56">
         <v>0</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="57">
         <v>0</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="58">
         <v>1</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="54">
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="54">
         <v>0</v>
       </c>
-      <c r="J6" s="96">
+      <c r="J6" s="59">
         <v>15</v>
       </c>
-      <c r="K6" s="97" t="str">
+      <c r="K6" s="60" t="str">
         <f>IF($I6=0,"Цех не працює",(IF(AND($G6=0,$I6=1),"СНВВ не працює","OK")))</f>
         <v>Цех не працює</v>
       </c>
-      <c r="M6" s="99" t="str">
+      <c r="M6" s="62" t="str">
         <f>IF(OR(D6&lt;&gt;0,I6=0),"",C6)</f>
         <v/>
       </c>
-      <c r="N6" s="100" t="str">
+      <c r="N6" s="63" t="str">
         <f>IF(M6="","0",(M6*$C$5+$C$6))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="101" t="str">
-        <f>IF(AND($D6&lt;&gt;0,$I6=1),"Вставте замінне значення!",N6)</f>
+      <c r="O6" s="64" t="str">
+        <f>IF(AND($D6&lt;&gt;0,$I6=1),C6,N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="102" t="str">
+      <c r="P6" s="65" t="str">
         <f>IF(OR(F6&lt;&gt;0,I6=0),"",E6)</f>
         <v/>
       </c>
-      <c r="Q6" s="103" t="str">
+      <c r="Q6" s="66" t="str">
         <f>IF(P6="","0",(P6*$E$5+$E$6))</f>
         <v>0</v>
       </c>
-      <c r="R6" s="104" t="str">
+      <c r="R6" s="67" t="str">
         <f>IF(AND(F6&lt;&gt;0,I6=1),"Вставте замінне значення!",Q6)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="105">
+      <c r="S6" s="68">
         <f>IFERROR(O6*R6,"")</f>
         <v>0</v>
       </c>
@@ -4504,42 +4431,42 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6 F6">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"AMS down"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Plant off"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"insert last measured value"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4568,57 +4495,57 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="130" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="186">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="138">
         <f>IFERROR(Data_CNBB!O3/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="136" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="187">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="139">
         <f>IFERROR(Data_CNBB!R3/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="184" t="s">
+      <c r="F4" s="136" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="181" t="s">
@@ -4626,16 +4553,16 @@
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
-      <c r="E5" s="188">
+      <c r="E5" s="140">
         <f>Data_CNBB!I5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="184" t="s">
+      <c r="F5" s="136" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="131" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="182" t="s">
@@ -4643,16 +4570,16 @@
       </c>
       <c r="C6" s="182"/>
       <c r="D6" s="182"/>
-      <c r="E6" s="188">
+      <c r="E6" s="140">
         <f>Data_CNBB!$S$3/1000000000</f>
         <v>0</v>
       </c>
-      <c r="F6" s="184" t="s">
+      <c r="F6" s="136" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="132" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="182" t="s">
@@ -4660,16 +4587,16 @@
       </c>
       <c r="C7" s="182"/>
       <c r="D7" s="182"/>
-      <c r="E7" s="189">
+      <c r="E7" s="141">
         <f>E6*298</f>
         <v>0</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="136" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="133" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="183" t="s">
@@ -4677,311 +4604,314 @@
       </c>
       <c r="C8" s="183"/>
       <c r="D8" s="183"/>
-      <c r="E8" s="190">
+      <c r="E8" s="142">
         <f>IFERROR(Data_CNBB!$S$3/1000000/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="137" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="136">
+      <c r="A13" s="98">
         <v>1</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="142" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="142" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="149"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="154"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="136">
+      <c r="A21" s="98">
         <v>2</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="157"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="158" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-    </row>
-    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
-      <c r="B25" s="142" t="s">
+      <c r="A24" s="115"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
+      <c r="B25" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="179"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="142" t="s">
+      <c r="A26" s="94"/>
+      <c r="B26" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="142" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="142" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="179"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="160"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="164"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
     </row>
     <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="136">
+      <c r="A32" s="98">
         <v>3</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="160"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="160"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="160"/>
-    </row>
-    <row r="36" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="142" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="117"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="94"/>
+      <c r="B36" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="144"/>
-    </row>
-    <row r="37" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="142" t="s">
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="94"/>
+      <c r="B37" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="144"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="142" t="s">
+      <c r="A38" s="94"/>
+      <c r="B38" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="143" t="s">
+      <c r="C38" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="144"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="179"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="168"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="171"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="B2:D2"/>
@@ -4998,9 +4928,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
@@ -1574,7 +1574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2176,13 +2176,274 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2193,9 +2454,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2208,9 +2467,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2221,9 +2478,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2232,6 +2487,58 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -2242,317 +2549,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,7 +2576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2693,118 +2694,60 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="47" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="52" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="53" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="55" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="38" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="35" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="36" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="56" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="57" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="58" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="39" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="60" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="4" borderId="50" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="4" borderId="40" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="62" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="52" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="63" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="53" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="65" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="55" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2813,10 +2756,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="65" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="19" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2825,22 +2768,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="67" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="57" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="67" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="57" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="68" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="58" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2852,24 +2795,24 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="70" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="60" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2893,7 +2836,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="19" fillId="5" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="19" fillId="5" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="22" fillId="5" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2901,11 +2844,59 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="175" fontId="22" fillId="5" borderId="46" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -2916,12 +2907,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2940,54 +2925,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="13" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="45" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3006,10 +2946,19 @@
     <xf numFmtId="167" fontId="16" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3027,17 +2976,63 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="66" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="67" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="68" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="69" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="4" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="70" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="71" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="64" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="13" fillId="3" borderId="64" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="64" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="64" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="64" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="72" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="68" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="64" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="64" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="75" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="74" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="4" borderId="74" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="50" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="73" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="72" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3157,7 +3152,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3219,7 +3214,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3281,7 +3276,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3348,7 +3343,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3410,7 +3405,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3754,19 +3749,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3775,51 +3770,51 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -3854,50 +3849,50 @@
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
     </row>
     <row r="11" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3917,177 +3912,189 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="156" t="s">
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="158"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="168"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="164" t="s">
+      <c r="D19" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="164" t="s">
+      <c r="D20" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D22:L22"/>
@@ -4098,18 +4105,6 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="D19:L19"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
@@ -4123,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4145,7 @@
     <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -4184,32 +4179,32 @@
       <c r="K1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="175" t="s">
+      <c r="N1" s="140"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
       <c r="S1" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="89"/>
+    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="57"/>
       <c r="M2" s="34" t="s">
         <v>28</v>
       </c>
@@ -4228,9 +4223,9 @@
       <c r="R2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="78"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32"/>
       <c r="B3" s="30"/>
       <c r="C3" s="33"/>
@@ -4242,29 +4237,29 @@
       <c r="I3" s="30"/>
       <c r="J3" s="27"/>
       <c r="K3" s="31"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="80" t="s">
+      <c r="M3" s="185"/>
+      <c r="N3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="81">
-        <f>SUM(O6:O15550)</f>
+      <c r="O3" s="50">
+        <f>SUM(O6:O8800)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="80" t="s">
+      <c r="P3" s="172"/>
+      <c r="Q3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="81">
-        <f>SUM(R6:R15550)</f>
+      <c r="R3" s="50">
+        <f>SUM(R6:R8800)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="82">
-        <f>SUM(S6:S15550)</f>
+      <c r="S3" s="182">
+        <f>SUM(S6:S8800)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170" t="s">
+    <row r="4" spans="1:21" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="138" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -4289,140 +4284,141 @@
       <c r="K4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75" t="s">
+      <c r="M4" s="181"/>
+      <c r="N4" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="178">
         <f>COUNTIF(O6:O15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="75" t="s">
+      <c r="P4" s="181"/>
+      <c r="Q4" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="178">
         <f>COUNTIF(R6:R15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="S4" s="78"/>
-    </row>
-    <row r="5" spans="1:19" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="171"/>
-      <c r="B5" s="47" t="s">
+      <c r="S4" s="184"/>
+    </row>
+    <row r="5" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="158">
         <v>0</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50">
+      <c r="D5" s="159"/>
+      <c r="E5" s="160">
         <v>0</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="188">
-        <f>SUM(I6)</f>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164">
+        <f>SUM(I6:I8800)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="189">
-        <f>COUNTIF(K6, "СНВВ не працює")</f>
+      <c r="J5" s="163"/>
+      <c r="K5" s="165">
+        <f>COUNTIF(K6:K8800, "Цех не працює")</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="180">
+        <f>COUNT(M6:M8800)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="69">
-        <f>COUNT(M$7:M$15551)</f>
+      <c r="N5" s="172">
+        <f>COUNT(N6:N8800)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="69">
-        <f>COUNT(N$7:N$15551)</f>
+      <c r="O5" s="173">
+        <f>COUNT(O6:O8800)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="70">
-        <f>COUNT(O$7:O$15551)</f>
+      <c r="P5" s="180">
+        <f>COUNTIF(P6:P8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="P5" s="69">
-        <f>COUNTIF(P$7:P$15551,"&gt;0")</f>
+      <c r="Q5" s="174">
+        <f>COUNT(Q6:Q8800)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="71">
-        <f>COUNT(Q$7:Q$15551)</f>
+      <c r="R5" s="175">
+        <f>COUNT(R6:R8800)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="72">
-        <f>COUNT(R$7:R$15551)</f>
+      <c r="S5" s="183"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="166">
+        <v>2</v>
+      </c>
+      <c r="B6" s="167">
+        <v>44562.041666666657</v>
+      </c>
+      <c r="C6" s="168">
         <v>0</v>
       </c>
-      <c r="S5" s="73"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
-        <v>2</v>
-      </c>
-      <c r="B6" s="55">
-        <v>44562.041666666657</v>
-      </c>
-      <c r="C6" s="56">
+      <c r="D6" s="169">
         <v>0</v>
       </c>
-      <c r="D6" s="57">
+      <c r="E6" s="168">
         <v>0</v>
       </c>
-      <c r="E6" s="56">
+      <c r="F6" s="169">
         <v>0</v>
       </c>
-      <c r="F6" s="57">
+      <c r="G6" s="166">
+        <v>1</v>
+      </c>
+      <c r="H6" s="166">
         <v>0</v>
       </c>
-      <c r="G6" s="58">
-        <v>1</v>
-      </c>
-      <c r="H6" s="54">
+      <c r="I6" s="166">
         <v>0</v>
       </c>
-      <c r="I6" s="54">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
+      <c r="J6" s="170">
         <v>15</v>
       </c>
-      <c r="K6" s="60" t="str">
+      <c r="K6" s="171" t="str">
         <f>IF($I6=0,"Цех не працює",(IF(AND($G6=0,$I6=1),"СНВВ не працює","OK")))</f>
         <v>Цех не працює</v>
       </c>
-      <c r="M6" s="62" t="str">
+      <c r="M6" s="176" t="str">
         <f>IF(OR(D6&lt;&gt;0,I6=0),"",C6)</f>
         <v/>
       </c>
-      <c r="N6" s="63" t="str">
-        <f>IF(M6="","0",(M6*$C$5+$C$6))</f>
+      <c r="N6" s="176" t="str">
+        <f>IF(M6="","0",M6*$C$4+$C$5)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="64" t="str">
+      <c r="O6" s="177" t="str">
         <f>IF(AND($D6&lt;&gt;0,$I6=1),C6,N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="65" t="str">
+      <c r="P6" s="176" t="str">
         <f>IF(OR(F6&lt;&gt;0,I6=0),"",E6)</f>
         <v/>
       </c>
-      <c r="Q6" s="66" t="str">
-        <f>IF(P6="","0",(P6*$E$5+$E$6))</f>
+      <c r="Q6" s="176" t="str">
+        <f>IF(P6="","0",P6*$E$4+$E$5)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="67" t="str">
+      <c r="R6" s="177" t="str">
         <f>IF(AND(F6&lt;&gt;0,I6=1),"Вставте замінне значення!",Q6)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="68">
+      <c r="S6" s="177">
         <f>IFERROR(O6*R6,"")</f>
         <v>0</v>
       </c>
+      <c r="U6" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4495,439 +4491,439 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="129" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="98" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="138">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="106">
         <f>IFERROR(Data_CNBB!O3/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="104" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="139">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="107">
         <f>IFERROR(Data_CNBB!R3/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="104" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="140">
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="108">
         <f>Data_CNBB!I5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="104" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="140">
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="108">
         <f>Data_CNBB!$S$3/1000000000</f>
         <v>0</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="104" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="141">
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="109">
         <f>E6*298</f>
         <v>0</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="142">
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="110">
         <f>IFERROR(Data_CNBB!$S$3/1000000/E5, 0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="137" t="s">
+      <c r="F8" s="105" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="98">
+      <c r="A13" s="66">
         <v>1</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="178" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="98">
+      <c r="A21" s="66">
         <v>2</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="186"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="187" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="104" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="178" t="s">
+      <c r="C25" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="104" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="149"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="104" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="178" t="s">
+      <c r="C28" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
     </row>
     <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="98">
+      <c r="A32" s="66">
         <v>3</v>
       </c>
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="184"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="117"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="104" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="149"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="104" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="104" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="179"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="149"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="124"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate.xlsx
@@ -2844,142 +2844,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="175" fontId="22" fillId="5" borderId="46" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="13" fillId="4" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3034,6 +2899,141 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="73" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="16" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="4" borderId="65" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="34" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="4" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3152,7 +3152,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAFAAAAAAAAAHcCwAMGAAAAAgAAAOEC6wLvAQAARAwAAIcHAACeAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3214,7 +3214,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAIAAAAAQAAAAAAAAAIAAAAAQAAAKICBgEQAgAAWBAAAIcAAACVAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3276,7 +3276,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAJAAAAAQAAAAAAAAAJAAAAAQAAABwDYwIQAgAAvxIAADsBAACkAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3343,7 +3343,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAKAAAAAQAAAAMCZQANAAAAAwAAAGwDSwEgBwAAjw0AAAoVAAAuBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3405,7 +3405,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns="" xmlns:pm="smNativeData" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" xmlns="" val="SMDATA_16_Z5sxYhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAIAAAD///8AAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACWX9lUDAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38AAQAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAAOAAAAAQAAADcCAAAQAAAAAQAAAAAAMQJABgAAjRIAAN0EAADIAQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3749,19 +3749,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3770,51 +3770,51 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="132" t="s">
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="150"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -3849,50 +3849,50 @@
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
     </row>
     <row r="10" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
     </row>
     <row r="11" spans="1:12" ht="93" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3912,189 +3912,177 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121" t="s">
+      <c r="B13" s="146"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D22:L22"/>
@@ -4105,6 +4093,18 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="D19:L19"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
@@ -4121,7 +4121,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,16 +4179,16 @@
       <c r="K1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="139" t="s">
+      <c r="M1" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="142" t="s">
+      <c r="N1" s="171"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="175"/>
       <c r="S1" s="36" t="s">
         <v>27</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="27"/>
       <c r="K3" s="31"/>
-      <c r="M3" s="185"/>
+      <c r="M3" s="140"/>
       <c r="N3" s="49" t="s">
         <v>39</v>
       </c>
@@ -4245,7 +4245,7 @@
         <f>SUM(O6:O8800)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="172"/>
+      <c r="P3" s="127"/>
       <c r="Q3" s="49" t="s">
         <v>39</v>
       </c>
@@ -4253,13 +4253,13 @@
         <f>SUM(R6:R8800)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="182">
+      <c r="S3" s="137">
         <f>SUM(S6:S8800)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="168" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -4284,141 +4284,141 @@
       <c r="K4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="179" t="s">
+      <c r="M4" s="136"/>
+      <c r="N4" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="178">
+      <c r="O4" s="133">
         <f>COUNTIF(O6:O15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="179" t="s">
+      <c r="P4" s="136"/>
+      <c r="Q4" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="178">
+      <c r="R4" s="133">
         <f>COUNTIF(R6:R15605,"Вставте замінне значення!")</f>
         <v>0</v>
       </c>
-      <c r="S4" s="184"/>
+      <c r="S4" s="139"/>
     </row>
     <row r="5" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="157" t="s">
+      <c r="A5" s="169"/>
+      <c r="B5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="113">
         <v>0</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160">
+      <c r="D5" s="114"/>
+      <c r="E5" s="115">
         <v>0</v>
       </c>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164">
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119">
         <f>SUM(I6:I8800)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="165">
+      <c r="J5" s="118"/>
+      <c r="K5" s="120">
         <f>COUNTIF(K6:K8800, "Цех не працює")</f>
         <v>1</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="180">
+      <c r="M5" s="135">
         <f>COUNT(M6:M8800)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="172">
+      <c r="N5" s="127">
         <f>COUNT(N6:N8800)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="173">
+      <c r="O5" s="128">
         <f>COUNT(O6:O8800)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="180">
+      <c r="P5" s="135">
         <f>COUNTIF(P6:P8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="174">
+      <c r="Q5" s="129">
         <f>COUNT(Q6:Q8800)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="175">
+      <c r="R5" s="130">
         <f>COUNT(R6:R8800)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="183"/>
+      <c r="S5" s="138"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="166">
+      <c r="A6" s="121">
         <v>2</v>
       </c>
-      <c r="B6" s="167">
+      <c r="B6" s="122">
         <v>44562.041666666657</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="123">
         <v>0</v>
       </c>
-      <c r="D6" s="169">
+      <c r="D6" s="124">
         <v>0</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="123">
         <v>0</v>
       </c>
-      <c r="F6" s="169">
+      <c r="F6" s="124">
         <v>0</v>
       </c>
-      <c r="G6" s="166">
+      <c r="G6" s="121">
         <v>1</v>
       </c>
-      <c r="H6" s="166">
+      <c r="H6" s="121">
         <v>0</v>
       </c>
-      <c r="I6" s="166">
+      <c r="I6" s="121">
         <v>0</v>
       </c>
-      <c r="J6" s="170">
-        <v>15</v>
-      </c>
-      <c r="K6" s="171" t="str">
+      <c r="J6" s="125">
+        <v>0</v>
+      </c>
+      <c r="K6" s="126" t="str">
         <f>IF($I6=0,"Цех не працює",(IF(AND($G6=0,$I6=1),"СНВВ не працює","OK")))</f>
         <v>Цех не працює</v>
       </c>
-      <c r="M6" s="176" t="str">
+      <c r="M6" s="131" t="str">
         <f>IF(OR(D6&lt;&gt;0,I6=0),"",C6)</f>
         <v/>
       </c>
-      <c r="N6" s="176" t="str">
+      <c r="N6" s="131" t="str">
         <f>IF(M6="","0",M6*$C$4+$C$5)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="177" t="str">
+      <c r="O6" s="132" t="str">
         <f>IF(AND($D6&lt;&gt;0,$I6=1),C6,N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="176" t="str">
+      <c r="P6" s="131" t="str">
         <f>IF(OR(F6&lt;&gt;0,I6=0),"",E6)</f>
         <v/>
       </c>
-      <c r="Q6" s="176" t="str">
+      <c r="Q6" s="131" t="str">
         <f>IF(P6="","0",P6*$E$4+$E$5)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="177" t="str">
+      <c r="R6" s="132" t="str">
         <f>IF(AND(F6&lt;&gt;0,I6=1),"Вставте замінне значення!",Q6)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="177">
+      <c r="S6" s="132">
         <f>IFERROR(O6*R6,"")</f>
         <v>0</v>
       </c>
-      <c r="U6" s="155"/>
+      <c r="U6" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4494,11 +4494,11 @@
       <c r="A2" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="97" t="s">
         <v>62</v>
       </c>
@@ -4544,11 +4544,11 @@
       <c r="A5" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
       <c r="E5" s="108">
         <f>Data_CNBB!I5</f>
         <v>0</v>
@@ -4561,11 +4561,11 @@
       <c r="A6" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="108">
         <f>Data_CNBB!$S$3/1000000000</f>
         <v>0</v>
@@ -4578,11 +4578,11 @@
       <c r="A7" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="109">
         <f>E6*298</f>
         <v>0</v>
@@ -4595,11 +4595,11 @@
       <c r="A8" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="110">
         <f>IFERROR(Data_CNBB!$S$3/1000000/E5, 0)</f>
         <v>0</v>
@@ -4664,36 +4664,36 @@
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="149"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
@@ -4715,23 +4715,23 @@
       <c r="A21" s="66">
         <v>2</v>
       </c>
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="146"/>
+      <c r="D21" s="183"/>
       <c r="E21" s="64"/>
       <c r="F21" s="65"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="83"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="147" t="s">
+      <c r="B22" s="182"/>
+      <c r="C22" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="147"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="64"/>
       <c r="F22" s="65"/>
     </row>
@@ -4756,48 +4756,48 @@
       <c r="B25" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="149"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="B26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="149"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="177"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="177"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
@@ -4827,10 +4827,10 @@
       <c r="A32" s="66">
         <v>3</v>
       </c>
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="154"/>
+      <c r="C32" s="185"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="85"/>
@@ -4864,36 +4864,36 @@
       <c r="B36" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="148" t="s">
+      <c r="C36" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="149"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="177"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="62"/>
       <c r="B37" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="149"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="177"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="148" t="s">
+      <c r="C38" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="177"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
@@ -4905,14 +4905,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -4924,6 +4916,14 @@
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
